--- a/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 Døgn Sep Okt 2025.xlsx
+++ b/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 Døgn Sep Okt 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D21EA0E7-F656-4D8B-AC8E-057FE4CB1F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{D21EA0E7-F656-4D8B-AC8E-057FE4CB1F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{453FA3B4-CB02-4006-9625-E156E9A4C5B4}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{F94ADE8C-CF23-4A30-B284-31C2171BB0D0}"/>
+    <workbookView xWindow="1245" yWindow="120" windowWidth="37290" windowHeight="20985" xr2:uid="{F94ADE8C-CF23-4A30-B284-31C2171BB0D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -447,13 +447,20 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
     <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
